--- a/CHESS_RESOURCES.xlsx
+++ b/CHESS_RESOURCES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RoryNeary\Documents\GitHub\P4k\chess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4167E60E-D492-4453-9F43-ADE52606497C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D16F5E-22A1-40FF-AA9E-EB7BD7A93649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -1075,7 +1075,7 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -1089,7 +1089,7 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -1117,7 +1117,7 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -1145,7 +1145,7 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -1159,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
